--- a/excel/02/ichigo.xlsx
+++ b/excel/02/ichigo.xlsx
@@ -2,46 +2,68 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u5173009\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e-learn\Desktop\excel2016 - コピー\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
+    <t>いちご狩りシート</t>
+    <rPh sb="3" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>順位</t>
     <rPh sb="0" eb="2">
       <t>ジュンイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あまおう(g)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さちのか(g)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とちおとめ(g)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>合計(g)</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>料金(円)</t>
@@ -51,130 +73,120 @@
     <rPh sb="3" eb="4">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さちのか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>とちおとめ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あまおう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さちのか(g)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>とちおとめ(g)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あまおう(g)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>料金表(100g)</t>
     <rPh sb="0" eb="3">
       <t>リョウキンヒョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いちご狩りシート</t>
-    <rPh sb="3" eb="4">
-      <t>ガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>上杉</t>
     <rPh sb="0" eb="2">
       <t>ウエスギ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あまおう</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>長尾</t>
     <rPh sb="0" eb="2">
       <t>ナガオ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さちのか</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>柿崎</t>
     <rPh sb="0" eb="2">
       <t>カキザキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とちおとめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新発田</t>
+    <rPh sb="0" eb="3">
+      <t>シバタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>直江</t>
     <rPh sb="0" eb="2">
       <t>ナオエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>宇佐美</t>
     <rPh sb="0" eb="3">
       <t>ウサミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新発田</t>
-    <rPh sb="0" eb="3">
-      <t>シバタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小島</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>荒川</t>
+    <rPh sb="0" eb="2">
+      <t>アラカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斎藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>村上</t>
     <rPh sb="0" eb="2">
       <t>ムラカミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小島</t>
-    <rPh sb="0" eb="2">
-      <t>コジマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>斎藤</t>
-    <rPh sb="0" eb="2">
-      <t>サイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒川</t>
-    <rPh sb="0" eb="2">
-      <t>アラカワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -203,6 +215,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -218,17 +241,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -246,39 +258,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,9 +346,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -378,9 +381,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -560,62 +563,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C3">
         <v>98</v>
@@ -626,18 +622,18 @@
       <c r="E3">
         <v>112</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C4">
         <v>394</v>
@@ -648,18 +644,18 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C5">
         <v>123</v>
@@ -670,18 +666,18 @@
       <c r="E5">
         <v>233</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <v>96</v>
@@ -692,12 +688,12 @@
       <c r="E6">
         <v>132</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -708,12 +704,12 @@
       <c r="E7">
         <v>197</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C8">
         <v>178</v>
@@ -724,12 +720,12 @@
       <c r="E8">
         <v>193</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -740,12 +736,12 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -756,11 +752,11 @@
       <c r="E10">
         <v>66</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11">
@@ -772,12 +768,12 @@
       <c r="E11">
         <v>78</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C12">
         <v>239</v>
@@ -788,37 +784,12 @@
       <c r="E12">
         <v>53</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="G13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -826,36 +797,7 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>